--- a/output/aieti.xlsx
+++ b/output/aieti.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -597,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AM46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,7 +615,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,10 +724,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -817,15 +835,24 @@
         <v>0.004396102437638085</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>16585</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -924,15 +951,24 @@
         <v>0.004396102437638085</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>246045</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1031,15 +1067,24 @@
         <v>0.004396102437638085</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>673582</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1138,15 +1183,24 @@
         <v>0.004396102437638085</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>263420</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1245,15 +1299,24 @@
         <v>0.004396102437638085</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>1026173</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1352,15 +1415,24 @@
         <v>0.004396102437638085</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>116386</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1459,15 +1531,24 @@
         <v>0.004396102437638085</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>63339</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1566,15 +1647,24 @@
         <v>0.004396102437638085</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>309074</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1673,15 +1763,24 @@
         <v>0.004396102437638085</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>84263</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1780,15 +1879,24 @@
         <v>0.004396102437638085</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>355588</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1887,15 +1995,24 @@
         <v>0.005088351067245806</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>294741</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1994,15 +2111,24 @@
         <v>0.005088351067245806</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>366062</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2101,15 +2227,24 @@
         <v>0.005088351067245806</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>159860</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2208,15 +2343,24 @@
         <v>0.005088351067245806</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>19164</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2315,15 +2459,24 @@
         <v>0.005088351067245806</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>334001</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2422,15 +2575,24 @@
         <v>0.005088351067245806</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>726128</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2529,15 +2691,24 @@
         <v>0.005088351067245806</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>1043965</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2636,15 +2807,24 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>186206</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2743,15 +2923,24 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>219222</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2850,15 +3039,24 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>150767</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2957,15 +3155,24 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>150000</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3064,15 +3271,24 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>141056</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3171,15 +3387,24 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>651091</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3278,15 +3503,24 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>636789</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3385,15 +3619,24 @@
         <v>0.06952413653994448</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>109750</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3492,15 +3735,24 @@
         <v>0.06952413653994448</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>166602.055</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3599,15 +3851,24 @@
         <v>0.06952413653994448</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>185245</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3706,15 +3967,24 @@
         <v>0.01929842871773783</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>109750</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3813,15 +4083,24 @@
         <v>0.01929842871773783</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>166602.055</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3920,15 +4199,24 @@
         <v>0.01929842871773783</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>185245</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4027,15 +4315,24 @@
         <v>0.001997302233607229</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>40699</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4134,15 +4431,24 @@
         <v>0.001997302233607229</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>254473.5</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4241,15 +4547,24 @@
         <v>0.001997302233607229</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>21985</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4348,15 +4663,24 @@
         <v>0.001997302233607229</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>95571</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4455,15 +4779,24 @@
         <v>0.001997302233607229</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>172324.5</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4562,15 +4895,24 @@
         <v>0.04049494513885676</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>40699</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4669,15 +5011,24 @@
         <v>0.04049494513885676</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>254473.5</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4776,15 +5127,24 @@
         <v>0.04049494513885676</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>21985</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4883,15 +5243,24 @@
         <v>0.04049494513885676</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>95571</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4990,15 +5359,24 @@
         <v>0.04049494513885676</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>172324.5</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5097,15 +5475,24 @@
         <v>0.07430462733116924</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>1994</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5204,15 +5591,24 @@
         <v>0.07430462733116924</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>522222</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5311,15 +5707,24 @@
         <v>0.07430462733116924</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>23593</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5418,15 +5823,24 @@
         <v>0.07430462733116924</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>103933</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5525,9 +5939,18 @@
         <v>0.07430462733116924</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1981</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>64487</v>
       </c>
     </row>

--- a/output/aieti.xlsx
+++ b/output/aieti.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -606,7 +612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM46"/>
+  <dimension ref="A1:AO46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,7 +621,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,10 +739,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -835,24 +847,30 @@
         <v>0.004396102437638085</v>
       </c>
       <c r="AI2">
+        <v>0.7349100095341994</v>
+      </c>
+      <c r="AJ2">
         <v>1981</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>16585</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -951,24 +969,30 @@
         <v>0.004396102437638085</v>
       </c>
       <c r="AI3">
+        <v>0.7349100095341994</v>
+      </c>
+      <c r="AJ3">
         <v>1981</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>246045</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1067,24 +1091,30 @@
         <v>0.004396102437638085</v>
       </c>
       <c r="AI4">
+        <v>0.7349100095341994</v>
+      </c>
+      <c r="AJ4">
         <v>1981</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>673582</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1183,24 +1213,30 @@
         <v>0.004396102437638085</v>
       </c>
       <c r="AI5">
+        <v>0.7349100095341994</v>
+      </c>
+      <c r="AJ5">
         <v>1981</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>263420</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1299,24 +1335,30 @@
         <v>0.004396102437638085</v>
       </c>
       <c r="AI6">
+        <v>0.7349100095341994</v>
+      </c>
+      <c r="AJ6">
         <v>1981</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>1026173</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1415,24 +1457,30 @@
         <v>0.004396102437638085</v>
       </c>
       <c r="AI7">
+        <v>0.7349100095341994</v>
+      </c>
+      <c r="AJ7">
         <v>1981</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>116386</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1531,24 +1579,30 @@
         <v>0.004396102437638085</v>
       </c>
       <c r="AI8">
+        <v>0.7349100095341994</v>
+      </c>
+      <c r="AJ8">
         <v>1981</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>63339</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1647,24 +1701,30 @@
         <v>0.004396102437638085</v>
       </c>
       <c r="AI9">
+        <v>0.7349100095341994</v>
+      </c>
+      <c r="AJ9">
         <v>1981</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>309074</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1763,24 +1823,30 @@
         <v>0.004396102437638085</v>
       </c>
       <c r="AI10">
+        <v>0.7349100095341994</v>
+      </c>
+      <c r="AJ10">
         <v>1981</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>84263</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1879,24 +1945,30 @@
         <v>0.004396102437638085</v>
       </c>
       <c r="AI11">
+        <v>0.7349100095341994</v>
+      </c>
+      <c r="AJ11">
         <v>1981</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>355588</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1953,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>12994</v>
+        <v>15411</v>
       </c>
       <c r="U12">
         <v>9</v>
@@ -1989,30 +2061,36 @@
         <v>22208778.83333333</v>
       </c>
       <c r="AG12">
-        <v>2553676</v>
+        <v>2556093</v>
       </c>
       <c r="AH12">
-        <v>0.005088351067245806</v>
+        <v>0.006029123353493007</v>
       </c>
       <c r="AI12">
+        <v>0.7253327637139964</v>
+      </c>
+      <c r="AJ12">
         <v>1981</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>294741</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2069,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>12994</v>
+        <v>15411</v>
       </c>
       <c r="U13">
         <v>9</v>
@@ -2105,30 +2183,36 @@
         <v>14532818.83333333</v>
       </c>
       <c r="AG13">
-        <v>2553676</v>
+        <v>2556093</v>
       </c>
       <c r="AH13">
-        <v>0.005088351067245806</v>
+        <v>0.006029123353493007</v>
       </c>
       <c r="AI13">
+        <v>0.7253327637139964</v>
+      </c>
+      <c r="AJ13">
         <v>1981</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>1</v>
       </c>
       <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>366062</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2185,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>12994</v>
+        <v>15411</v>
       </c>
       <c r="U14">
         <v>9</v>
@@ -2221,30 +2305,36 @@
         <v>18320809.5</v>
       </c>
       <c r="AG14">
-        <v>2553676</v>
+        <v>2556093</v>
       </c>
       <c r="AH14">
-        <v>0.005088351067245806</v>
+        <v>0.006029123353493007</v>
       </c>
       <c r="AI14">
+        <v>0.7253327637139964</v>
+      </c>
+      <c r="AJ14">
         <v>1981</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14">
         <v>1</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>159860</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2301,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>12994</v>
+        <v>15411</v>
       </c>
       <c r="U15">
         <v>9</v>
@@ -2337,30 +2427,36 @@
         <v>38993399</v>
       </c>
       <c r="AG15">
-        <v>2553676</v>
+        <v>2556093</v>
       </c>
       <c r="AH15">
-        <v>0.005088351067245806</v>
+        <v>0.006029123353493007</v>
       </c>
       <c r="AI15">
+        <v>0.7253327637139964</v>
+      </c>
+      <c r="AJ15">
         <v>1981</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15">
         <v>1</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>19164</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2417,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>12994</v>
+        <v>15411</v>
       </c>
       <c r="U16">
         <v>9</v>
@@ -2453,30 +2549,36 @@
         <v>25548911</v>
       </c>
       <c r="AG16">
-        <v>2553676</v>
+        <v>2556093</v>
       </c>
       <c r="AH16">
-        <v>0.005088351067245806</v>
+        <v>0.006029123353493007</v>
       </c>
       <c r="AI16">
+        <v>0.7253327637139964</v>
+      </c>
+      <c r="AJ16">
         <v>1981</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16">
         <v>1</v>
       </c>
       <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>334001</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2533,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>12994</v>
+        <v>15411</v>
       </c>
       <c r="U17">
         <v>9</v>
@@ -2569,30 +2671,36 @@
         <v>10672204</v>
       </c>
       <c r="AG17">
-        <v>2553676</v>
+        <v>2556093</v>
       </c>
       <c r="AH17">
-        <v>0.005088351067245806</v>
+        <v>0.006029123353493007</v>
       </c>
       <c r="AI17">
+        <v>0.7253327637139964</v>
+      </c>
+      <c r="AJ17">
         <v>1981</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17">
         <v>1</v>
       </c>
       <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>726128</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2649,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>12994</v>
+        <v>15411</v>
       </c>
       <c r="U18">
         <v>9</v>
@@ -2685,30 +2793,36 @@
         <v>27999397</v>
       </c>
       <c r="AG18">
-        <v>2553676</v>
+        <v>2556093</v>
       </c>
       <c r="AH18">
-        <v>0.005088351067245806</v>
+        <v>0.006029123353493007</v>
       </c>
       <c r="AI18">
+        <v>0.7253327637139964</v>
+      </c>
+      <c r="AJ18">
         <v>1981</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>1043965</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2807,24 +2921,30 @@
         <v>0</v>
       </c>
       <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
         <v>1981</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>186206</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2923,24 +3043,30 @@
         <v>0</v>
       </c>
       <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
         <v>1981</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20">
         <v>1</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>219222</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3039,24 +3165,30 @@
         <v>0</v>
       </c>
       <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
         <v>1981</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>150767</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3155,24 +3287,30 @@
         <v>0</v>
       </c>
       <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
         <v>1981</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22">
         <v>1</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>150000</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3271,24 +3409,30 @@
         <v>0</v>
       </c>
       <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
         <v>1981</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>141056</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3387,24 +3531,30 @@
         <v>0</v>
       </c>
       <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
         <v>1981</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>651091</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3503,24 +3653,30 @@
         <v>0</v>
       </c>
       <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
         <v>1981</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>636789</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3619,24 +3775,30 @@
         <v>0.06952413653994448</v>
       </c>
       <c r="AI26">
+        <v>0.7824399510560214</v>
+      </c>
+      <c r="AJ26">
         <v>1981</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>1</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>109750</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3735,24 +3897,30 @@
         <v>0.06952413653994448</v>
       </c>
       <c r="AI27">
+        <v>0.7824399510560214</v>
+      </c>
+      <c r="AJ27">
         <v>1981</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>166602.055</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3851,24 +4019,30 @@
         <v>0.06952413653994448</v>
       </c>
       <c r="AI28">
+        <v>0.7824399510560214</v>
+      </c>
+      <c r="AJ28">
         <v>1981</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28">
         <v>1</v>
       </c>
       <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>185245</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3967,24 +4141,30 @@
         <v>0.01929842871773783</v>
       </c>
       <c r="AI29">
+        <v>0.9807015712822622</v>
+      </c>
+      <c r="AJ29">
         <v>1981</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>109750</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4083,24 +4263,30 @@
         <v>0.01929842871773783</v>
       </c>
       <c r="AI30">
+        <v>0.9807015712822622</v>
+      </c>
+      <c r="AJ30">
         <v>1981</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>166602.055</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4199,24 +4385,30 @@
         <v>0.01929842871773783</v>
       </c>
       <c r="AI31">
+        <v>0.9807015712822622</v>
+      </c>
+      <c r="AJ31">
         <v>1981</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31">
         <v>1</v>
       </c>
       <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>185245</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4273,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>7100.01</v>
+        <v>162984.01</v>
       </c>
       <c r="U32">
         <v>10</v>
@@ -4309,30 +4501,36 @@
         <v>6011154</v>
       </c>
       <c r="AG32">
-        <v>3554800.01</v>
+        <v>3710684.01</v>
       </c>
       <c r="AH32">
-        <v>0.001997302233607229</v>
+        <v>0.04392290196652989</v>
       </c>
       <c r="AI32">
+        <v>0.9560770980334702</v>
+      </c>
+      <c r="AJ32">
         <v>1981</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32">
         <v>1</v>
       </c>
       <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>40699</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4389,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>7100.01</v>
+        <v>162984.01</v>
       </c>
       <c r="U33">
         <v>10</v>
@@ -4425,30 +4623,36 @@
         <v>11105000</v>
       </c>
       <c r="AG33">
-        <v>3554800.01</v>
+        <v>3710684.01</v>
       </c>
       <c r="AH33">
-        <v>0.001997302233607229</v>
+        <v>0.04392290196652989</v>
       </c>
       <c r="AI33">
+        <v>0.9560770980334702</v>
+      </c>
+      <c r="AJ33">
         <v>1981</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33">
         <v>1</v>
       </c>
       <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>254473.5</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4505,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>7100.01</v>
+        <v>162984.01</v>
       </c>
       <c r="U34">
         <v>10</v>
@@ -4541,30 +4745,36 @@
         <v>6909225</v>
       </c>
       <c r="AG34">
-        <v>3554800.01</v>
+        <v>3710684.01</v>
       </c>
       <c r="AH34">
-        <v>0.001997302233607229</v>
+        <v>0.04392290196652989</v>
       </c>
       <c r="AI34">
+        <v>0.9560770980334702</v>
+      </c>
+      <c r="AJ34">
         <v>1981</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34">
         <v>1</v>
       </c>
       <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>21985</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4621,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>7100.01</v>
+        <v>162984.01</v>
       </c>
       <c r="U35">
         <v>10</v>
@@ -4657,30 +4867,36 @@
         <v>5885000</v>
       </c>
       <c r="AG35">
-        <v>3554800.01</v>
+        <v>3710684.01</v>
       </c>
       <c r="AH35">
-        <v>0.001997302233607229</v>
+        <v>0.04392290196652989</v>
       </c>
       <c r="AI35">
+        <v>0.9560770980334702</v>
+      </c>
+      <c r="AJ35">
         <v>1981</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35">
         <v>1</v>
       </c>
       <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>95571</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4737,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>7100.01</v>
+        <v>162984.01</v>
       </c>
       <c r="U36">
         <v>10</v>
@@ -4773,30 +4989,36 @@
         <v>6615978</v>
       </c>
       <c r="AG36">
-        <v>3554800.01</v>
+        <v>3710684.01</v>
       </c>
       <c r="AH36">
-        <v>0.001997302233607229</v>
+        <v>0.04392290196652989</v>
       </c>
       <c r="AI36">
+        <v>0.9560770980334702</v>
+      </c>
+      <c r="AJ36">
         <v>1981</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36">
         <v>1</v>
       </c>
       <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>172324.5</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4895,24 +5117,30 @@
         <v>0.04049494513885676</v>
       </c>
       <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
         <v>1981</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37">
         <v>1</v>
       </c>
       <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>40699</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5011,24 +5239,30 @@
         <v>0.04049494513885676</v>
       </c>
       <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
         <v>1981</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>1</v>
       </c>
       <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>254473.5</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5127,24 +5361,30 @@
         <v>0.04049494513885676</v>
       </c>
       <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
         <v>1981</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39">
         <v>1</v>
       </c>
       <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>21985</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5243,24 +5483,30 @@
         <v>0.04049494513885676</v>
       </c>
       <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
         <v>1981</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40">
         <v>1</v>
       </c>
       <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>95571</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5359,24 +5605,30 @@
         <v>0.04049494513885676</v>
       </c>
       <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
         <v>1981</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41">
         <v>1</v>
       </c>
       <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>172324.5</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5475,24 +5727,30 @@
         <v>0.07430462733116924</v>
       </c>
       <c r="AI42">
+        <v>0.4123341492064043</v>
+      </c>
+      <c r="AJ42">
         <v>1981</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42">
         <v>1</v>
       </c>
       <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>1994</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5591,24 +5849,30 @@
         <v>0.07430462733116924</v>
       </c>
       <c r="AI43">
+        <v>0.4123341492064043</v>
+      </c>
+      <c r="AJ43">
         <v>1981</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43">
         <v>1</v>
       </c>
       <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>522222</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5707,24 +5971,30 @@
         <v>0.07430462733116924</v>
       </c>
       <c r="AI44">
+        <v>0.4123341492064043</v>
+      </c>
+      <c r="AJ44">
         <v>1981</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44">
         <v>1</v>
       </c>
       <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>23593</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5823,24 +6093,30 @@
         <v>0.07430462733116924</v>
       </c>
       <c r="AI45">
+        <v>0.4123341492064043</v>
+      </c>
+      <c r="AJ45">
         <v>1981</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45">
         <v>1</v>
       </c>
       <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>103933</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5939,18 +6215,24 @@
         <v>0.07430462733116924</v>
       </c>
       <c r="AI46">
+        <v>0.4123341492064043</v>
+      </c>
+      <c r="AJ46">
         <v>1981</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46">
         <v>1</v>
       </c>
       <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>64487</v>
       </c>
     </row>

--- a/output/aieti.xlsx
+++ b/output/aieti.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5520</v>
+        <v>5596.139681459835</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D3">
         <v>334170</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D5">
         <v>259724</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D6">
         <v>581968</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D7">
         <v>300000</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9950</v>
+        <v>12227.21453003286</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D9">
         <v>288000</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3450</v>
+        <v>3972.630273980753</v>
       </c>
       <c r="D11">
         <v>418429</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2890</v>
+        <v>2983.242707849043</v>
       </c>
       <c r="D12">
         <v>240326</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D13">
         <v>114843</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D14">
         <v>301534</v>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D15">
         <v>300000</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5610</v>
+        <v>6336.709213679884</v>
       </c>
       <c r="D16">
         <v>288000</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4070</v>
+        <v>4355.934938677345</v>
       </c>
       <c r="D17">
         <v>687733</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D18">
         <v>398582</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D19">
         <v>240326</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D20">
         <v>293851</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D21">
         <v>301534</v>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4480</v>
+        <v>4479.398934239905</v>
       </c>
       <c r="D24">
         <v>148000</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D25">
         <v>284974</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D26">
         <v>293851</v>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>4760</v>
+        <v>4394.543881413723</v>
       </c>
       <c r="D27">
         <v>330000</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D28">
         <v>300000</v>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>5510</v>
+        <v>4699.493713911862</v>
       </c>
       <c r="D30">
         <v>330000</v>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D31">
         <v>307460</v>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>6110</v>
+        <v>5412.131646018807</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D33">
         <v>2500000</v>
@@ -4658,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>5780</v>
+        <v>4861.287098802361</v>
       </c>
       <c r="D35">
         <v>297700</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D36">
         <v>307460</v>
@@ -5024,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>5970</v>
+        <v>5330.539154475424</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>5620</v>
+        <v>4944.191641077407</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5512,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5756,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>3510</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -5878,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>5390</v>
+        <v>5089.61202008711</v>
       </c>
       <c r="D45">
         <v>349300</v>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D46">
         <v>0</v>

--- a/output/aieti.xlsx
+++ b/output/aieti.xlsx
@@ -2343,7 +2343,7 @@
         <v>1955.461557360978</v>
       </c>
       <c r="D15">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>116386</v>
@@ -2465,7 +2465,7 @@
         <v>6336.709213679884</v>
       </c>
       <c r="D16">
-        <v>288000</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>309074</v>
@@ -2831,7 +2831,7 @@
         <v>3083.80337578809</v>
       </c>
       <c r="D19">
-        <v>240326</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>294741</v>
@@ -3075,7 +3075,7 @@
         <v>1577.487171555845</v>
       </c>
       <c r="D21">
-        <v>301534</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>159860</v>
@@ -3685,7 +3685,7 @@
         <v>2999.422762626143</v>
       </c>
       <c r="D26">
-        <v>293851</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>219222</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>109750</v>
+        <v>219222</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -4173,10 +4173,10 @@
         <v>4699.493713911862</v>
       </c>
       <c r="D30">
-        <v>330000</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>166602.055</v>
+        <v>651091</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -4298,7 +4298,7 @@
         <v>307460</v>
       </c>
       <c r="E31">
-        <v>185245</v>
+        <v>636789</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -4905,7 +4905,7 @@
         <v>5996.49696468919</v>
       </c>
       <c r="D36">
-        <v>307460</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>185245</v>
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>40699</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>254473.5</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>21985</v>
+        <v>109750</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -5396,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>95571</v>
+        <v>166602.055</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -5518,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>172324.5</v>
+        <v>185245</v>
       </c>
       <c r="F41">
         <v>1</v>
